--- a/medicine/Psychotrope/Brasserie_du_Mont-Blanc/Brasserie_du_Mont-Blanc.xlsx
+++ b/medicine/Psychotrope/Brasserie_du_Mont-Blanc/Brasserie_du_Mont-Blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Brasserie Distillerie du Mont-Blanc[2] est une brasserie savoyarde fondée par Sylvain Chiron en 1999.
-Le lieu de production s'installe en 2010 sur la zone industrielle de Bissy à Chambéry, en région Auvergne-Rhône-Alpes. Le siège social de l'entreprise se trouve dans la commune des Houches (Haute-Savoie) mais les bières sont brassées à La Motte-Servolex (Savoie)[3].
+La Brasserie Distillerie du Mont-Blanc est une brasserie savoyarde fondée par Sylvain Chiron en 1999.
+Le lieu de production s'installe en 2010 sur la zone industrielle de Bissy à Chambéry, en région Auvergne-Rhône-Alpes. Le siège social de l'entreprise se trouve dans la commune des Houches (Haute-Savoie) mais les bières sont brassées à La Motte-Servolex (Savoie).
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au XIXe siècle, en Savoie, la Brasserie du Mont-Blanc, installée à Sallanches, est l'une des six brasseries qui existent dans le duché et qui perdurera jusqu'au début du siècle suivant[4].
-Sylvain Chiron, fils des fondateurs de la marque de pâtes Alpina Savoie, reprend la marque « Brasserie du Mont-Blanc » en 1999[5],[6]. 
-Le 18 septembre 2023, le groupe belge Duvel Moortgat annonce le rachat de la Brasserie du Mont-Blanc[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIXe siècle, en Savoie, la Brasserie du Mont-Blanc, installée à Sallanches, est l'une des six brasseries qui existent dans le duché et qui perdurera jusqu'au début du siècle suivant.
+Sylvain Chiron, fils des fondateurs de la marque de pâtes Alpina Savoie, reprend la marque « Brasserie du Mont-Blanc » en 1999,. 
+Le 18 septembre 2023, le groupe belge Duvel Moortgat annonce le rachat de la Brasserie du Mont-Blanc. 
 </t>
         </is>
       </c>
@@ -546,50 +560,59 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>La particularité de la marque est de promouvoir des produits réalisés avec de l'eau de source du Mont-Blanc, captée à la source dite « l’Enchapleuze », située à 2 074 mètres d'altitude sur la commune des Houches.
-Bières
-La Blanche du Mont-Blanc. Elle obtient la médaille de bronze au Concours général agricole en 2011[8] puis est reconnue « meilleure bière blanche » par les World Beer Awards en 2015[9].
-La Blonde du Mont-Blanc. Elle obtient la médaille d'argent au Concours général agricole en 2011[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La particularité de la marque est de promouvoir des produits réalisés avec de l'eau de source du Mont-Blanc, captée à la source dite « l’Enchapleuze », située à 2 074 mètres d'altitude sur la commune des Houches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brasserie_du_Mont-Blanc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_du_Mont-Blanc</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bières</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Blanche du Mont-Blanc. Elle obtient la médaille de bronze au Concours général agricole en 2011 puis est reconnue « meilleure bière blanche » par les World Beer Awards en 2015.
+La Blonde du Mont-Blanc. Elle obtient la médaille d'argent au Concours général agricole en 2011.
 La Verte du Mont-Blanc. Bière aromatisée au génépi.
-La Violette du Mont-Blanc.  Bière aromatisée à l'airelle et à la violette. Elle obtient la médaille de bronze au Concours général agricole en 2011[8].
-La Rousse du Mont-Blanc : Bière ambrée spéciale aux trois malts (orge, blé, avoine), lancée en 2010. Elle obtient la médaille d'or au Concours général agricole en 2011. Reconnue « meilleure pale ale ambrée d’Europe et du monde » par les World Beer Awards en 2011[10].
+La Violette du Mont-Blanc.  Bière aromatisée à l'airelle et à la violette. Elle obtient la médaille de bronze au Concours général agricole en 2011.
+La Rousse du Mont-Blanc : Bière ambrée spéciale aux trois malts (orge, blé, avoine), lancée en 2010. Elle obtient la médaille d'or au Concours général agricole en 2011. Reconnue « meilleure pale ale ambrée d’Europe et du monde » par les World Beer Awards en 2011.
 La Bleue du Mont-Blanc : Bière aromatisée aux myrtilles
 La Triple Épices : Bière ambrée intense aux épices
 La Cristal : Bière blonde légère désaltérante
 La Cristal IPA : Une IPA (India Pale Ale), médaille d'or International Beer Challenge 2018, Meilleure IPA française 2018 au World Beer Awards 2018, Meilleure session IPA au monde 2019 au World Beer Awards 2019.
-La Imperial Milk Stout : Une bière brune, contenant du petit lait en provenance de l'Abbaye de Tamié
-Cola
-Alp'Cola par Alp'boissons, filiale de la Brasserie du Mont-Blanc. Lancé en 2010[5],[11].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Brasserie_du_Mont-Blanc</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Brasserie_du_Mont-Blanc</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Données financières</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+La Imperial Milk Stout : Une bière brune, contenant du petit lait en provenance de l'Abbaye de Tamié</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,10 +635,76 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cola</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Alp'Cola par Alp'boissons, filiale de la Brasserie du Mont-Blanc. Lancé en 2010,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Brasserie_du_Mont-Blanc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_du_Mont-Blanc</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Données financières</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Brasserie_du_Mont-Blanc</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brasserie_du_Mont-Blanc</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La Brasserie du Mont-Blanc réalise un peu plus de 20 % de son chiffre d'affaires à l'exportation.
 </t>
